--- a/data/trans_dic/P64D$particular_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,75; 89,1</t>
+          <t>74,42; 88,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,62; 80,74</t>
+          <t>67,98; 80,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,74; 84,25</t>
+          <t>74,71; 83,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,78; 85,13</t>
+          <t>70,19; 84,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 79,51</t>
+          <t>67,61; 79,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,5; 81,19</t>
+          <t>71,53; 81,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,14; 86,95</t>
+          <t>74,93; 87,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,98; 67,61</t>
+          <t>52,5; 67,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,82; 76,48</t>
+          <t>67,39; 77,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,43; 76,7</t>
+          <t>60,27; 77,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 70,95</t>
+          <t>19,28; 70,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,8; 70,33</t>
+          <t>31,67; 70,34</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,55; 85,03</t>
+          <t>71,64; 85,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,82; 82,34</t>
+          <t>70,45; 82,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,3; 81,75</t>
+          <t>73,4; 82,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,07; 86,99</t>
+          <t>74,43; 87,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,48; 72,73</t>
+          <t>55,92; 72,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,06; 79,7</t>
+          <t>69,02; 79,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>76,24; 85,68</t>
+          <t>76,54; 85,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,52; 71,29</t>
+          <t>61,54; 71,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,34; 77,52</t>
+          <t>70,34; 77,35</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,82; 89,79</t>
+          <t>56,17; 90,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,72; 45,14</t>
+          <t>34,84; 45,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,66; 83,09</t>
+          <t>49,49; 84,27</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>73,9; 85,56</t>
+          <t>74,16; 85,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>49,34; 64,35</t>
+          <t>50,57; 64,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>66,42; 76,62</t>
+          <t>65,66; 76,61</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se desplaza desde su casa al centro de trabajo/estudios en vehículo particular (automóvil, moto)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>160319</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108581</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>268901</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>143017; 170615</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>98121; 116420</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>251391; 282077</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>193389</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122419</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>315809</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>172362; 207790</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111986; 131738</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>294137; 335066</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>121852</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>73214</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>195065</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>111410; 129642</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63453; 81805</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>181634; 208977</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>116029</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>125096</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>241125</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>100881; 129704</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>49891; 182976</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>134963; 299756</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>90220</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>82351</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>172571</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81842; 97171</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75465; 88329</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>162478; 181881</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>109659</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>55839</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>165498</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>100532; 117504</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>48316; 62694</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>152861; 175696</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>271557</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>204686</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>476243</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>255828; 286169</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>188762; 218373</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>450840; 495797</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>468300</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>107623</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>575923</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>352910; 567357</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>94436; 122933</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>445142; 757907</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1531325</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>879809</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2411135</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1457763; 1673040</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>738808; 939288</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2249815; 2625071</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>